--- a/ksj/python_modules/upload_db/target.xlsx
+++ b/ksj/python_modules/upload_db/target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junbaby\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365knuackr-my.sharepoint.com/personal/2016115279_office_knu_ac_kr/Documents/shared_folder/KNU/k-shield jr/8팀 프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE556B-2330-4DA2-B78C-F23B8AA454C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{C50540A7-179E-4146-BA93-B0C2292828ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377B097C-D649-427E-A8B0-B3C89FB6A167}"/>
   <bookViews>
-    <workbookView xWindow="33045" yWindow="4665" windowWidth="21420" windowHeight="10665" xr2:uid="{BF1038F4-6B08-4CC2-9D3B-BA09DBB0DAFD}"/>
+    <workbookView xWindow="8160" yWindow="1980" windowWidth="18000" windowHeight="9360" xr2:uid="{BF1038F4-6B08-4CC2-9D3B-BA09DBB0DAFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kbfanta@suwon.ac.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lsy5490@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +101,272 @@
   </si>
   <si>
     <t>j2won0215@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbfanta@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlrlrl09@naver.com</t>
+  </si>
+  <si>
+    <t>김태규</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dkgk5594@naver.com</t>
+  </si>
+  <si>
+    <t>안형근</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tkrmtkrm1245@naver.com</t>
+  </si>
+  <si>
+    <t>송하승</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paul520@korea.ac.kr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한범희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxc7516@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이창희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lljickll@gmail.com</t>
+  </si>
+  <si>
+    <t>김성준</t>
+  </si>
+  <si>
+    <t>신채윤</t>
+  </si>
+  <si>
+    <t>sara9da@gmail.com</t>
+  </si>
+  <si>
+    <t>이훈규</t>
+  </si>
+  <si>
+    <t>stevelee0910@nate.com</t>
+  </si>
+  <si>
+    <t>이윤성</t>
+  </si>
+  <si>
+    <t>minkj98@naver.com</t>
+  </si>
+  <si>
+    <t>민경준</t>
+  </si>
+  <si>
+    <t>argon1025@gmail.com</t>
+  </si>
+  <si>
+    <t>이성록</t>
+  </si>
+  <si>
+    <t>bigdreami@naver.com</t>
+  </si>
+  <si>
+    <t>이서현</t>
+  </si>
+  <si>
+    <t>wpwn3927@naver.com</t>
+  </si>
+  <si>
+    <t>안성민</t>
+  </si>
+  <si>
+    <t>chelues17@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shjgh1015@gmail.com</t>
+  </si>
+  <si>
+    <t>신수현</t>
+  </si>
+  <si>
+    <t>alsrud8961@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남채희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneofmymanyconqeust@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최윤석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja02404@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정대규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adh134@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손명빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smb1103@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고재철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gojaech@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백성욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsu6235@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mushroon1790@naver.com</t>
+  </si>
+  <si>
+    <t>이석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aixue1999@naver.com</t>
+  </si>
+  <si>
+    <t>이하연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms0532@naver.com</t>
+  </si>
+  <si>
+    <t>강지연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttochi0105@naver.com</t>
+  </si>
+  <si>
+    <t>임치헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lch950223@gmail.com </t>
+  </si>
+  <si>
+    <t>성민주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alswn1298@naver.com </t>
+  </si>
+  <si>
+    <t>김은서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kes5342@naver.com</t>
+  </si>
+  <si>
+    <t>최명준</t>
+  </si>
+  <si>
+    <t>audwns6271@naver.com</t>
+  </si>
+  <si>
+    <t>이다은</t>
+  </si>
+  <si>
+    <t>ekdms1492@naver.com</t>
+  </si>
+  <si>
+    <t>양지은</t>
+  </si>
+  <si>
+    <t>yangbuilt@gmail.com</t>
+  </si>
+  <si>
+    <t>김유림</t>
+  </si>
+  <si>
+    <t>youlimkim58@gmail.com</t>
+  </si>
+  <si>
+    <t>장소연</t>
+  </si>
+  <si>
+    <t>jjssyy1228@naver.com</t>
+  </si>
+  <si>
+    <t>지하린</t>
+  </si>
+  <si>
+    <t>wlgkfls5924@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜인</t>
+  </si>
+  <si>
+    <t>hilee0312@naver.com</t>
+  </si>
+  <si>
+    <t>배수왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tndhkd34@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dkel4826@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duddnr0615k@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +399,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,12 +438,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,15 +771,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F251A-1BD9-4D0F-ABBD-4956B1CAAC62}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -509,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -517,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -525,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -533,51 +822,367 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{59C2CE38-3984-404F-8573-268AC8B40E64}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A24EDB6D-789A-4A1E-B2FA-170282383131}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D8A954BB-F0D7-4FF2-8D4A-62F3928BE08D}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{A24EDB6D-789A-4A1E-B2FA-170282383131}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{7C787B49-602D-42D2-A60C-692B66A9E33F}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{0879C1B3-9391-4C2A-A369-BD5DACBE4547}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{59C2CE38-3984-404F-8573-268AC8B40E64}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{8C68DC6D-89CA-4997-810C-64F7BD9DAD6F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{85FF0A1C-6456-4DF2-8D22-940563F7E6F6}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{CBA3F957-4827-4D53-90A4-DC176540FF2C}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{85FF0A1C-6456-4DF2-8D22-940563F7E6F6}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{8C68DC6D-89CA-4997-810C-64F7BD9DAD6F}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{0879C1B3-9391-4C2A-A369-BD5DACBE4547}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{7C787B49-602D-42D2-A60C-692B66A9E33F}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{E2120406-0EC7-49B6-B82C-8C16DF5C2781}"/>
+    <hyperlink ref="B24" r:id="rId10" xr:uid="{D6BF214D-BFCA-497D-83E7-B86AA1CB42BC}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{FF39AE88-D1E8-405D-B4BA-2335DFE99E3B}"/>
+    <hyperlink ref="B25" r:id="rId12" xr:uid="{031A35AA-A33C-4F1D-825A-69F2F5F56533}"/>
+    <hyperlink ref="B26" r:id="rId13" xr:uid="{8BD82A09-38C7-495B-8C89-AE88D1C88B08}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{57C48CB7-E823-4C65-80A1-DF4839B55B38}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{9619687F-1863-4DE3-B4AF-8B2D15ECAD2A}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{9AEC3816-C393-4155-B1E3-D4989D7F0DEC}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{8B18CE98-AECC-4418-97B3-6C7DF6C08634}"/>
+    <hyperlink ref="B45" r:id="rId18" xr:uid="{F4138C9C-F081-4B4E-BE0B-602107A46F05}"/>
+    <hyperlink ref="B46" r:id="rId19" xr:uid="{D51C1AB3-18A2-449B-89C3-A61FEAC1F722}"/>
+    <hyperlink ref="B47" r:id="rId20" xr:uid="{A224277A-863A-407A-8FB3-2DD1F6F7959A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>